--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_022.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_022.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295024EA1.16) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Containment/drywell vacuum breakers</t>
-  </si>
-  <si>
-    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
-  </si>
-  <si>
-    <t>(700000AK2.07) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295025EK3.10) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295016AA1.05) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) AC electrical distribution </t>
+    <t>(295023AK2.07) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295024EA1.20) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Standby gas treatment/FRVS</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
   </si>
   <si>
     <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
   </si>
   <si>
-    <t>(600000AK2.06) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Fire pumps</t>
-  </si>
-  <si>
-    <t>(295037EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor pressure effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+    <t>(295005AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Realignment of electrical distribution</t>
+  </si>
+  <si>
+    <t>(295037EK2.25) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Rod worth minimizer</t>
+  </si>
+  <si>
+    <t>(295026EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) LPCS</t>
+  </si>
+  <si>
+    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
+  </si>
+  <si>
+    <t>(295006AK2.04) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Turbine trip logic</t>
   </si>
   <si>
     <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
   </si>
   <si>
-    <t xml:space="preserve">(295001AA2.05) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Jet pump operability </t>
-  </si>
-  <si>
-    <t>(295026EK2.07) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+    <t>(295001AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
   </si>
   <si>
     <t>(295021AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Increasing drywell cooling</t>
   </si>
   <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295023AA1.02) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295020AK2.12) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) Instrument air/nitrogen</t>
-  </si>
-  <si>
-    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
-  </si>
-  <si>
-    <t>(295017AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) System isolations</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295008AA1.06) Ability to operate and/or monitor the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) HPCS</t>
-  </si>
-  <si>
-    <t>(295029EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment water level</t>
-  </si>
-  <si>
-    <t>(259002A3.11) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Automatic selection of feedflow/steam flow/level channel input</t>
-  </si>
-  <si>
-    <t>(217000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(215004K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detector drive motor</t>
-  </si>
-  <si>
-    <t>(203000A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
-  </si>
-  <si>
-    <t>(300000K3.15) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling cleanup system</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(218000K4.05) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Inhibiting automatic initiation of ADS logic</t>
-  </si>
-  <si>
-    <t>(209002K2.02) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(264000A4.04) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Starting, loading, unloading, and stopping of emergency generator</t>
-  </si>
-  <si>
-    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
-  </si>
-  <si>
-    <t>(261000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Drywell and suppression chamber differential pressure (Mark I)</t>
-  </si>
-  <si>
-    <t>(510000A3.02) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
-  </si>
-  <si>
-    <t>(262002K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(262001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Generator trip</t>
-  </si>
-  <si>
-    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
-  </si>
-  <si>
-    <t>(205000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (291007K1.08) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Demineralizer D/P to determine condition of demineralizer resin bed</t>
-  </si>
-  <si>
-    <t>(215005K4.06) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Effects of detector aging on LPRM/APRM readings</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(212000A4.01) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System actuation</t>
-  </si>
-  <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(209001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Emergency generator loading</t>
-  </si>
-  <si>
-    <t>(259002A3.01) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Runout flow control</t>
-  </si>
-  <si>
-    <t>(217000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Suppression pool</t>
-  </si>
-  <si>
-    <t>(215004K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) 24/48 volt DC power</t>
-  </si>
-  <si>
-    <t>(203000A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation logic failure</t>
-  </si>
-  <si>
-    <t>(202002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.5 / 45.3) Rod pattern</t>
-  </si>
-  <si>
-    <t>(201001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 CRDH) CRD HYDRAULIC SYSTEM including: (CFR: 41.1-2 / 41.5-7 / 41.10 / 45.1-6 / 45.12) SDV isolation valve position</t>
-  </si>
-  <si>
-    <t>(272000A3.09) Ability to monitor automatic operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.7 / 45.7) Containment isolation</t>
-  </si>
-  <si>
-    <t>(241000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(268000K4.01) Knowledge of (SF9 RW) RADWASTE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic isolation of radiological release isolation valves</t>
-  </si>
-  <si>
-    <t>(510001A2.01) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/Motor failure</t>
-  </si>
-  <si>
-    <t>(239001K3.14) Knowledge of the effect that a loss or malfunction of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Residual heat removal system</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215001K4.01) Knowledge of (SF7 TIP) TRAVERSING IN CORE PROBE design features and/or interlocks that provide for the following: (CFR: 41.7) Primary containment isolation (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(286000K2.02) (SF8 FPS) FIRE PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Fire pumps</t>
-  </si>
-  <si>
-    <t>(219000A4.04) Ability to manually operate and/or monitor the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Minimum flow valves</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(292005K1.06) CONTROL RODS (CFR: 41.1) Define reactor SCRAM/trip</t>
-  </si>
-  <si>
-    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
-  </si>
-  <si>
-    <t>(293006K1.05) FLUID STATICS AND DYNAMICS (CFR: 41.14) Explain operational implications of fluid/water hammer</t>
-  </si>
-  <si>
-    <t>(293008K1.32) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Describe core bypass flow</t>
-  </si>
-  <si>
-    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(500000EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen monitoring availability</t>
-  </si>
-  <si>
-    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(264000A2.10) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202001A2.23) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+    <t>(600000AK2.05) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Fire alarm panels</t>
+  </si>
+  <si>
+    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
+  </si>
+  <si>
+    <t>(295008AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) RCIC steam supply valve closure</t>
+  </si>
+  <si>
+    <t>(295012AK2.01) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell ventilation</t>
+  </si>
+  <si>
+    <t>(295029EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295007AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 41.10) Pressure effects on reactor power</t>
+  </si>
+  <si>
+    <t>(261000A2.04) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High train moisture content</t>
+  </si>
+  <si>
+    <t>(212000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Valve position</t>
+  </si>
+  <si>
+    <t>(259002K4.07) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) TDRFP 20-percent power interlock</t>
+  </si>
+  <si>
+    <t>(218000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(400000K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215004A4.05) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS back panel switches, meters, and indicating lights</t>
+  </si>
+  <si>
+    <t>(264000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(223002K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Containment atmosphere sampling</t>
+  </si>
+  <si>
+    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
+  </si>
+  <si>
+    <t>(209002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) System pressure</t>
+  </si>
+  <si>
+    <t>(262001K4.01) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Lockouts</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(239002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Nuclear boiler instrument system (pressure indication)</t>
+  </si>
+  <si>
+    <t>(203000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291008K1.12) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Trip indicators for circuit breakers and protective relays</t>
+  </si>
+  <si>
+    <t>(215005A4.05) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
+  </si>
+  <si>
+    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
+  </si>
+  <si>
+    <t>(217000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler Instrumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000A2.14) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(212000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(259002K4.03) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor feedwater pump runout protection</t>
+  </si>
+  <si>
+    <t>(218000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(290002K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(226001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCI/RHR system</t>
+  </si>
+  <si>
+    <t>(215001A2.07) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Failure to retract during accident conditions (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(288000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.5 / 45.5) Area temperatures</t>
+  </si>
+  <si>
+    <t>(245000K4.07) Knowledge of (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Generator voltage regulation</t>
+  </si>
+  <si>
+    <t>(223001K5.14) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.5 / 45.3) Differential pressure</t>
+  </si>
+  <si>
+    <t>(272000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.7) Continuous air monitoring/post\u2011accident radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(239003A3.07) Ability to monitor automatic operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.7 / 45.7) System lineups</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(286000A4.06) Ability to manually operate and/or monitor the (SF8 FPS) FIRE PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Diesel-driven fire pump start</t>
+  </si>
+  <si>
+    <t>(241000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
+  </si>
+  <si>
+    <t>(292008K1.26) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain reactor power response to a decrease in core flow</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
+  </si>
+  <si>
+    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
+  </si>
+  <si>
+    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295019AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Dryer/filter realignment</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295037EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295020AA2.09) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Area/delta temperatures</t>
+  </si>
+  <si>
+    <t>(400000A2.10) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Spent fuel pool cooling system heat exchanger tube leak</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(264000A2.08) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation of emergency generator room fire protection system</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259001A2.10) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Digital feedwater control malfunctions</t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K3</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
     <t>295018</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295019</t>
+    <t>295021</t>
   </si>
   <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295023</t>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
   <si>
     <t>295020</t>
   </si>
   <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>268000</t>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>259001</t>
   </si>
   <si>
     <t>510001</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>239003</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1718,7 +1718,7 @@
         <v>2.9</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1803,7 +1803,7 @@
         <v>3.1</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2279,7 +2279,7 @@
         <v>4.6</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
